--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1109624.429246399</v>
+        <v>1112943.975519304</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4587703.271378743</v>
+        <v>4587703.271378744</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -741,25 +741,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
-        <v>202.014156881908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -896,70 +896,70 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>181.0201173812374</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>54.10931576969056</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>80.86228322859418</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>205.5178444382804</v>
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>104.1252322629233</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>180.2735260549796</v>
       </c>
     </row>
     <row r="10">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1446,31 +1446,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>52.64939492479343</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>28.36537940681665</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>17.55829564281238</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1649,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.285385643442</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
@@ -1923,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1941,10 +1941,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>62.88143347497287</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>71.44610599702098</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>88.91888512441756</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2245,61 +2245,61 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,19 +2318,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>52.42556848774752</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>103.7035670991123</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2533,13 +2533,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>69.03881051849277</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>85.25638555553469</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,16 +2834,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2874,25 +2874,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3026,65 +3026,65 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>241.0142888776591</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3114,19 +3114,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>9.560252277224992</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>84.97365353379641</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,67 +3263,67 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>87.89355723993965</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,16 +3354,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>117.9920762390807</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3503,73 +3503,73 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,28 +3582,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>38.3816197818592</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>124.3991006813875</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>56.18438237580115</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>48.32160706581262</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C2" t="n">
-        <v>236.1051990630351</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4355,25 +4355,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>415.8300791907684</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="C3" t="n">
-        <v>415.8300791907684</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="D3" t="n">
-        <v>415.8300791907684</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>415.8300791907684</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4434,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>619.8847831118876</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U3" t="n">
-        <v>619.8847831118876</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V3" t="n">
-        <v>619.8847831118876</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W3" t="n">
-        <v>619.8847831118876</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="X3" t="n">
-        <v>619.8847831118876</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="Y3" t="n">
-        <v>415.8300791907684</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="4">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4601,16 +4601,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y5" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>379.2691667366082</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>379.2691667366082</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>230.3347570753569</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>71.09730206990139</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
         <v>16.44142755506243</v>
@@ -4653,13 +4653,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>618.608711759224</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
         <v>822.0713777531216</v>
@@ -4671,25 +4671,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U6" t="n">
-        <v>547.4845037566762</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V6" t="n">
-        <v>547.4845037566762</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W6" t="n">
-        <v>547.4845037566762</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X6" t="n">
-        <v>547.4845037566762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>547.4845037566762</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4811,10 +4811,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4838,16 +4838,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>443.6989813239244</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y8" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N9" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4917,16 +4917,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W9" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="Y9" t="n">
         <v>406.8838132313431</v>
-      </c>
-      <c r="X9" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="10">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D11" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E11" t="n">
         <v>224.0352098159517</v>
@@ -5060,31 +5060,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="T11" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="T11" t="n">
-        <v>431.628992076841</v>
-      </c>
       <c r="U11" t="n">
-        <v>224.0352098159517</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>224.0352098159517</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>224.0352098159517</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>244.0756638309303</v>
+        <v>518.8326053659523</v>
       </c>
       <c r="C12" t="n">
-        <v>69.62263454980328</v>
+        <v>518.8326053659523</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>518.8326053659523</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,46 +5124,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>619.8847831118876</v>
+        <v>518.8326053659523</v>
       </c>
       <c r="U12" t="n">
-        <v>619.8847831118876</v>
+        <v>518.8326053659523</v>
       </c>
       <c r="V12" t="n">
-        <v>619.8847831118876</v>
+        <v>518.8326053659523</v>
       </c>
       <c r="W12" t="n">
-        <v>619.8847831118876</v>
+        <v>518.8326053659523</v>
       </c>
       <c r="X12" t="n">
-        <v>619.8847831118876</v>
+        <v>518.8326053659523</v>
       </c>
       <c r="Y12" t="n">
-        <v>412.2910008509983</v>
+        <v>518.8326053659523</v>
       </c>
     </row>
     <row r="13">
@@ -5188,10 +5188,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
         <v>133.2380658808762</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5279,49 +5279,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>431.628992076841</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0352098159517</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,10 +5361,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
         <v>366.5706756325438</v>
@@ -5379,28 +5379,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5534,13 +5534,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
         <v>749.627473042513</v>
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C18" t="n">
-        <v>789.6041262295092</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D18" t="n">
-        <v>640.669716568258</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E18" t="n">
-        <v>481.4322615628025</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F18" t="n">
-        <v>334.8977035896875</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>196.166878172303</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>82.7977425798823</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="19">
@@ -5692,16 +5692,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5783,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>467.067986854209</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>353.3011080883284</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>109.8523314442283</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>20.03527576299844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
         <v>829.5248650203655</v>
@@ -5947,13 +5947,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>283.2696759935595</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C24" t="n">
-        <v>283.2696759935595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>283.2696759935595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>124.032220988104</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6069,13 +6069,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>526.7184526376595</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2696759935595</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X24" t="n">
-        <v>283.2696759935595</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y24" t="n">
-        <v>283.2696759935595</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="25">
@@ -6181,10 +6181,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>89.01731535111452</v>
+        <v>258.5151819143075</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01731535111452</v>
+        <v>258.5151819143075</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>877.9395943434295</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>877.9395943434295</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>877.9395943434295</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>877.9395943434295</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>877.9395943434295</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>634.4908176993295</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>634.4908176993295</v>
       </c>
       <c r="Y27" t="n">
-        <v>257.2326523711826</v>
+        <v>426.7305189343755</v>
       </c>
     </row>
     <row r="28">
@@ -6418,7 +6418,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
         <v>829.5248650203655</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>689.4702815141908</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C30" t="n">
-        <v>689.4702815141908</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D30" t="n">
-        <v>668.2068788942177</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>689.4702815141908</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y30" t="n">
-        <v>689.4702815141908</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>466.4486707798429</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C33" t="n">
-        <v>291.9956414987158</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D33" t="n">
-        <v>143.0612318374646</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E33" t="n">
-        <v>143.0612318374646</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F33" t="n">
-        <v>143.0612318374646</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6780,49 +6780,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y33" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="34">
@@ -6898,7 +6898,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
         <v>19.28114311021272</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>194.4883050441255</v>
+        <v>481.618781308658</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>481.618781308658</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>481.618781308658</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>481.618781308658</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V36" t="n">
-        <v>526.7184526376595</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2696759935595</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X36" t="n">
-        <v>283.2696759935595</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y36" t="n">
-        <v>283.2696759935595</v>
+        <v>481.618781308658</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>512.7568786610034</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C39" t="n">
-        <v>473.9875657500345</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D39" t="n">
-        <v>325.0531560887832</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,43 +7260,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X39" t="n">
-        <v>512.7568786610034</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.7568786610034</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
         <v>19.28114311021272</v>
@@ -7357,25 +7357,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7388,10 +7388,10 @@
         <v>406.8838132313431</v>
       </c>
       <c r="C41" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D41" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E41" t="n">
         <v>199.2900309704538</v>
@@ -7403,7 +7403,7 @@
         <v>199.2900309704538</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7412,19 +7412,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7445,16 +7445,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y41" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="W41" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="X41" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>73.19332894476057</v>
       </c>
       <c r="F42" t="n">
         <v>16.44142755506243</v>
@@ -7491,22 +7491,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.1051990630351</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C44" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E44" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F44" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G44" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7667,31 +7667,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7728,19 +7728,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M45" t="n">
-        <v>435.9652341458732</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7749,28 +7749,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>773.2616736462402</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>392.2505468360198</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>392.2505468360198</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>392.2505468360198</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>392.2505468360198</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y45" t="n">
-        <v>184.6567645751305</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7837,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8301,16 +8301,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N6" t="n">
-        <v>201.9320071929585</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8459,13 +8459,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>155.3219763666824</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,13 +8772,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,13 +9009,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>185.8815939223662</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O42" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M45" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22565,10 +22565,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>54.02502153750649</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22629,25 +22629,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>138.1081192872392</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22674,25 +22674,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.668538895396352</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22784,10 +22784,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22799,7 +22799,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22841,16 +22841,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.2178212748162</v>
+        <v>205.2178212748161</v>
       </c>
     </row>
     <row r="6">
@@ -22860,19 +22860,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>90.95989662369331</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22911,7 +22911,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>90.82088787524364</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22920,13 +22920,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -23021,7 +23021,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23042,7 +23042,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23078,7 +23078,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>158.68143044351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>143.7231242791326</v>
@@ -23106,13 +23106,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>53.51984819247767</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23157,16 +23157,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>25.4091697223248</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,7 +23264,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23300,19 +23300,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>37.99065141955279</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23334,31 +23334,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>94.79567063984533</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>171.7993492880049</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>150.4326837156464</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>210.9009519055692</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>112.7505148429297</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23783,7 +23783,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>10.81046392068936</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
@@ -23811,16 +23811,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23829,10 +23829,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.5151993764422</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23932,10 +23932,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,19 +23969,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24023,16 +24023,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,19 +24045,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>95.08707765284636</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,22 +24096,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>116.8541000790599</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,19 +24206,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>330.8829497359738</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,16 +24285,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>41.36564529427154</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24336,7 +24336,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24348,10 +24348,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24421,13 +24421,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,16 +24440,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>181.5942737834322</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,13 +24458,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>119.2616763733422</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,22 +24494,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,7 +24525,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>78.40625504614599</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24540,7 +24540,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>14.90144859710844</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,10 +24576,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24658,10 +24658,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,16 +24686,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>279.5921429795728</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,16 +24722,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,7 +24740,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24762,25 +24762,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>126.3942969708654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>76.82817876295802</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,22 +24804,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24841,13 +24841,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24935,7 +24935,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24965,13 +24965,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>145.2236497783945</v>
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25002,19 +25002,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>127.7832648859856</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>27.26179070270005</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25050,7 +25050,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25138,10 +25138,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,10 +25163,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,16 +25202,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>8.68397329741569</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>78.63962640992769</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,16 +25242,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>27.07713615430319</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,25 +25278,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25360,7 +25360,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25391,7 +25391,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,13 +25400,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25439,10 +25439,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,28 +25470,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>134.3268792064565</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>12.94441648182315</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,10 +25643,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25685,16 +25685,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>100.148786383304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>88.88483001758273</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25801,7 +25801,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25828,7 +25828,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,13 +25907,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>199.809058715315</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25944,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25959,7 +25959,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>64.93916505516172</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,19 +25989,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>51.83622708683051</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26077,13 +26077,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>386506.2224955828</v>
+        <v>386506.2224955827</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>386506.2224955829</v>
+        <v>386506.2224955828</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>386506.2224955828</v>
+        <v>386506.2224955827</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>407093.6477017645</v>
+        <v>407093.6477017647</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>407093.6477017646</v>
+        <v>407093.6477017647</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>386506.2224955827</v>
+        <v>386506.2224955828</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>386506.2224955827</v>
+        <v>386506.2224955828</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
       <c r="C2" t="n">
         <v>165645.5239266781</v>
@@ -26320,7 +26320,7 @@
         <v>165645.5239266781</v>
       </c>
       <c r="E2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
       <c r="F2" t="n">
         <v>165645.5239266781</v>
@@ -26329,13 +26329,13 @@
         <v>174468.7061578989</v>
       </c>
       <c r="H2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="I2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="J2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="K2" t="n">
         <v>174468.7061578989</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="C4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="D4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="E4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50107.22942532127</v>
+        <v>50494.87084420765</v>
       </c>
       <c r="C6" t="n">
-        <v>118980.986007011</v>
+        <v>119368.6274258975</v>
       </c>
       <c r="D6" t="n">
-        <v>118980.986007011</v>
+        <v>119368.6274258975</v>
       </c>
       <c r="E6" t="n">
-        <v>152608.5860070111</v>
+        <v>152996.2274258975</v>
       </c>
       <c r="F6" t="n">
-        <v>152608.5860070111</v>
+        <v>152996.2274258975</v>
       </c>
       <c r="G6" t="n">
-        <v>149497.8887498229</v>
+        <v>149906.4619222662</v>
       </c>
       <c r="H6" t="n">
-        <v>159226.93172399</v>
+        <v>159635.5048964334</v>
       </c>
       <c r="I6" t="n">
-        <v>159226.93172399</v>
+        <v>159635.5048964334</v>
       </c>
       <c r="J6" t="n">
-        <v>105454.4208337805</v>
+        <v>105862.9940062239</v>
       </c>
       <c r="K6" t="n">
-        <v>159226.93172399</v>
+        <v>159635.5048964333</v>
       </c>
       <c r="L6" t="n">
-        <v>159226.93172399</v>
+        <v>159635.5048964333</v>
       </c>
       <c r="M6" t="n">
-        <v>159226.93172399</v>
+        <v>159635.5048964333</v>
       </c>
       <c r="N6" t="n">
-        <v>159226.93172399</v>
+        <v>159635.5048964333</v>
       </c>
       <c r="O6" t="n">
-        <v>152608.5860070111</v>
+        <v>152996.2274258975</v>
       </c>
       <c r="P6" t="n">
-        <v>152608.5860070111</v>
+        <v>152996.2274258975</v>
       </c>
     </row>
   </sheetData>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N6" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35179,13 +35179,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35492,13 +35492,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35507,7 +35507,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35662,7 +35662,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="N15" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>43.28534947792182</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N42" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O42" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>197.2140931478448</v>
+      </c>
+      <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M45" t="n">
-        <v>91.61977832229879</v>
-      </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1112943.975519304</v>
+        <v>1113728.121457333</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443407</v>
       </c>
     </row>
     <row r="8">
@@ -656,67 +658,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D2" t="n">
+      <c r="U2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E2" t="n">
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9.336946277399601</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,22 +1025,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>80.86228322859418</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>113.950365236779</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1212,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>104.1252322629233</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>76.48594566799144</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -1275,10 +1277,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1370,22 +1372,22 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1455,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>28.36537940681665</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>14.48693373137006</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1613,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
@@ -1625,10 +1627,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1692,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>146.2490690754472</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1895,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1923,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>123.6003327477366</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2081,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2135,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
@@ -2157,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>71.44610599702098</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>237.3811362441418</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2278,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>128.2298974603009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2564,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2649,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>58.07579258715796</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>85.25638555553469</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2700,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,64 +2791,64 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2886,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2953,64 +2955,64 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>84.97365353379641</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>48.48515950437164</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3168,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3275,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>81.00537765493296</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -3311,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>117.9920762390807</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>127.5091403934689</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -3366,7 +3368,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3445,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3512,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3582,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>124.3991006813875</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>11.86743876134777</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3667,64 +3669,64 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C41" t="n">
+      <c r="G41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3816,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>56.18438237580115</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3913,37 +3915,37 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3980,70 +3982,70 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,10 +4061,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4071,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4113,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>152.495230711598</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639.2227743377304</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C2" t="n">
-        <v>431.628992076841</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4337,7 +4339,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="Y2" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.87268642112264</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>25.87268642112264</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
         <v>16.44142755506243</v>
@@ -4416,16 +4418,16 @@
         <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>232.5025681519757</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V3" t="n">
-        <v>441.0602509429012</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W3" t="n">
-        <v>233.4664686820119</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X3" t="n">
-        <v>25.87268642112264</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y3" t="n">
-        <v>25.87268642112264</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4568,10 +4570,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4601,16 +4603,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X5" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>406.8838132313431</v>
-      </c>
-      <c r="X5" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4671,25 +4673,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>639.2227743377304</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>639.2227743377304</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="U6" t="n">
-        <v>639.2227743377304</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="V6" t="n">
-        <v>431.628992076841</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="W6" t="n">
-        <v>224.0352098159517</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="7">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
         <v>16.44142755506243</v>
@@ -4811,7 +4813,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4844,10 +4846,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4860,13 +4862,13 @@
         <v>406.8838132313431</v>
       </c>
       <c r="C9" t="n">
-        <v>406.8838132313431</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="D9" t="n">
-        <v>406.8838132313431</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="E9" t="n">
-        <v>301.706810945562</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="F9" t="n">
         <v>155.1722529724469</v>
@@ -4890,10 +4892,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
+        <v>345.2616536067974</v>
+      </c>
+      <c r="N9" t="n">
         <v>435.9652341458732</v>
-      </c>
-      <c r="N9" t="n">
-        <v>639.4279001397708</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4923,7 +4925,7 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y9" t="n">
         <v>406.8838132313431</v>
@@ -5018,19 +5020,19 @@
         <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5069,19 +5071,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
         <v>639.2227743377304</v>
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>518.8326053659523</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>518.8326053659523</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>518.8326053659523</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>518.8326053659523</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>518.8326053659523</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>518.8326053659523</v>
+        <v>807.4381113577983</v>
       </c>
       <c r="W12" t="n">
-        <v>518.8326053659523</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="X12" t="n">
-        <v>518.8326053659523</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y12" t="n">
-        <v>518.8326053659523</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I13" t="n">
         <v>133.2380658808762</v>
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,16 +5363,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>487.2836868729568</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>487.2836868729568</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>487.2836868729568</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
         <v>362.4348659156472</v>
@@ -5595,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M18" t="n">
-        <v>249.2442489785619</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5692,16 +5694,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5785,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5841,40 +5843,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>348.0024326625565</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C23" t="n">
-        <v>348.0024326625565</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D23" t="n">
-        <v>348.0024326625565</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E23" t="n">
-        <v>348.0024326625565</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F23" t="n">
-        <v>104.5536560184564</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X23" t="n">
-        <v>348.0024326625565</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y23" t="n">
-        <v>348.0024326625565</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>69.84447166430675</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>149.5604247127973</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6074,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>485.4562706347935</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X24" t="n">
-        <v>277.6047704292607</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y24" t="n">
-        <v>69.84447166430675</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="25">
@@ -6181,10 +6183,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>485.167420504237</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>485.167420504237</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>258.5151819143075</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="C27" t="n">
-        <v>258.5151819143075</v>
+        <v>317.9317313217982</v>
       </c>
       <c r="D27" t="n">
-        <v>109.5807722530562</v>
+        <v>168.997321660547</v>
       </c>
       <c r="E27" t="n">
-        <v>109.5807722530562</v>
+        <v>168.997321660547</v>
       </c>
       <c r="F27" t="n">
-        <v>109.5807722530562</v>
+        <v>168.997321660547</v>
       </c>
       <c r="G27" t="n">
-        <v>109.5807722530562</v>
+        <v>168.997321660547</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>877.9395943434295</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>877.9395943434295</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>877.9395943434295</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>877.9395943434295</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>877.9395943434295</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>634.4908176993295</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X27" t="n">
-        <v>634.4908176993295</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y27" t="n">
-        <v>426.7305189343755</v>
+        <v>492.3847606029253</v>
       </c>
     </row>
     <row r="28">
@@ -6418,7 +6420,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
         <v>829.5248650203655</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>55.04605772994853</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>55.04605772994853</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
         <v>19.28114311021272</v>
@@ -6658,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>964.0571555106362</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="C33" t="n">
-        <v>789.6041262295092</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="D33" t="n">
-        <v>640.669716568258</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="E33" t="n">
-        <v>481.4322615628025</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="F33" t="n">
-        <v>334.8977035896875</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="G33" t="n">
-        <v>196.166878172303</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y33" t="n">
-        <v>964.0571555106362</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.35113235729608</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I35" t="n">
         <v>31.35113235729608</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>761.6974622895962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>518.2486856454962</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>274.7999090013961</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>274.7999090013961</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X35" t="n">
-        <v>31.35113235729608</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.35113235729608</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>481.618781308658</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="C36" t="n">
-        <v>481.618781308658</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="D36" t="n">
-        <v>481.618781308658</v>
+        <v>351.7470193540314</v>
       </c>
       <c r="E36" t="n">
-        <v>481.618781308658</v>
+        <v>351.7470193540314</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>351.7470193540314</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X36" t="n">
-        <v>481.618781308658</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y36" t="n">
-        <v>481.618781308658</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J37" t="n">
         <v>19.28114311021272</v>
@@ -7120,25 +7122,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>259.0600686093459</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C39" t="n">
-        <v>259.0600686093459</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D39" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,16 +7259,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>952.069843630487</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>778.6524990811558</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>778.6524990811558</v>
       </c>
       <c r="U39" t="n">
-        <v>259.0600686093459</v>
+        <v>550.428880817545</v>
       </c>
       <c r="V39" t="n">
-        <v>259.0600686093459</v>
+        <v>550.428880817545</v>
       </c>
       <c r="W39" t="n">
-        <v>259.0600686093459</v>
+        <v>550.428880817545</v>
       </c>
       <c r="X39" t="n">
-        <v>259.0600686093459</v>
+        <v>550.428880817545</v>
       </c>
       <c r="Y39" t="n">
-        <v>259.0600686093459</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
         <v>19.28114311021272</v>
@@ -7372,10 +7374,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7418,7 +7420,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
         <v>583.2163723184226</v>
@@ -7464,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>406.8838132313431</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>232.4307839502161</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D42" t="n">
-        <v>232.4307839502161</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>73.19332894476057</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
         <v>16.44142755506243</v>
@@ -7497,10 +7499,10 @@
         <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O42" t="n">
         <v>570.0333416264414</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7655,10 +7657,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
         <v>822.0713777531216</v>
@@ -7691,7 +7693,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>238.668476211275</v>
+        <v>499.8204541556819</v>
       </c>
       <c r="C45" t="n">
-        <v>64.21544693014803</v>
+        <v>325.3674248745549</v>
       </c>
       <c r="D45" t="n">
-        <v>64.21544693014803</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="E45" t="n">
-        <v>64.21544693014803</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>64.21544693014803</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>64.21544693014803</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7731,16 +7733,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>211.6833797714288</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7761,16 +7763,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X45" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y45" t="n">
-        <v>406.8838132313431</v>
+        <v>668.0357911757499</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -7985,10 +7987,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8064,19 +8066,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>154.8597658442563</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>269.7148239424616</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,10 +8461,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8538,13 +8540,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8927,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9009,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>139.0491612396719</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9489,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9722,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,10 +10907,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,7 +10919,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11066,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11145,13 +11147,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>279.489774794024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11303,13 +11305,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11379,7 +11381,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>335.768472927719</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11391,7 +11393,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>323.5320421805953</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22592,19 +22594,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22629,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>138.1081192872392</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22674,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V3" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22841,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.2178212748161</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,22 +22913,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>90.82088787524364</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>86.21436345804264</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23084,7 +23086,7 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>188.7109832972316</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23100,16 +23102,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>53.51984819247767</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>68.58326672539243</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23163,10 +23165,10 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23258,22 +23260,22 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23309,7 +23311,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23343,22 +23345,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>171.7993492880049</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>218.3136534180552</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>162.2736845391249</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23501,10 +23503,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>210.9009519055692</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>237.8052177150866</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
@@ -23513,10 +23515,10 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23580,22 +23582,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>11.39601137995376</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>112.7505148429297</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>71.32518834398851</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23783,16 +23785,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23811,16 +23813,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>21.46887964564732</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23932,7 +23934,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2941050228172</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24023,13 +24025,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
@@ -24045,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95.08707765284636</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24093,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>14.31384691677781</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24166,10 +24168,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>174.2811697535276</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>330.8829497359738</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,13 +24287,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>29.41518299510003</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,22 +24338,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24421,13 +24423,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24452,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>119.2616763733422</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24537,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>54.15965164933851</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.90144859710844</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,7 +24578,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24588,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24658,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>280.3956145707916</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24774,7 +24776,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>76.82817876295802</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24841,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24935,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>189.2921341996816</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24965,25 +24967,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>27.26179070270005</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>40.91147334704344</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25056,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25163,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>325.8706680867785</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,25 +25201,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.68397329741569</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,16 +25238,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>27.07713615430319</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>9.834376769741738</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25254,7 +25256,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25333,7 +25335,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25360,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>184.188810568277</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25400,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25470,10 +25472,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25482,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>12.94441648182315</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.29039539129536</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25704,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>100.148786383304</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>88.88483001758273</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25801,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25868,7 +25870,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25947,10 +25949,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25959,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>64.93916505516172</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26001,7 +26003,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26010,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>53.18746506570633</v>
       </c>
     </row>
     <row r="46">
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>407093.6477017646</v>
+        <v>407093.6477017647</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>407093.6477017647</v>
+        <v>407093.6477017646</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>407093.6477017647</v>
+        <v>407093.6477017646</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>407093.6477017646</v>
+        <v>407093.6477017645</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>407093.6477017646</v>
+        <v>407093.6477017647</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>407093.6477017646</v>
+        <v>407093.6477017645</v>
       </c>
     </row>
     <row r="14">
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165645.5239266782</v>
+        <v>165645.5239266781</v>
       </c>
       <c r="C2" t="n">
         <v>165645.5239266781</v>
       </c>
       <c r="D2" t="n">
+        <v>165645.5239266782</v>
+      </c>
+      <c r="E2" t="n">
         <v>165645.5239266781</v>
-      </c>
-      <c r="E2" t="n">
-        <v>165645.5239266782</v>
       </c>
       <c r="F2" t="n">
         <v>165645.5239266781</v>
       </c>
       <c r="G2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="H2" t="n">
         <v>174468.706157899</v>
       </c>
       <c r="I2" t="n">
-        <v>174468.706157899</v>
+        <v>174468.7061578989</v>
       </c>
       <c r="J2" t="n">
         <v>174468.706157899</v>
       </c>
       <c r="K2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="L2" t="n">
         <v>174468.7061578989</v>
@@ -26347,7 +26349,7 @@
         <v>174468.7061578989</v>
       </c>
       <c r="N2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.7061578991</v>
       </c>
       <c r="O2" t="n">
         <v>165645.5239266781</v>
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50494.87084420765</v>
+        <v>50494.87084420762</v>
       </c>
       <c r="C6" t="n">
-        <v>119368.6274258975</v>
+        <v>119368.6274258974</v>
       </c>
       <c r="D6" t="n">
         <v>119368.6274258975</v>
@@ -26531,16 +26533,16 @@
         <v>152996.2274258975</v>
       </c>
       <c r="F6" t="n">
-        <v>152996.2274258975</v>
+        <v>152996.2274258974</v>
       </c>
       <c r="G6" t="n">
-        <v>149906.4619222662</v>
+        <v>149906.4619222663</v>
       </c>
       <c r="H6" t="n">
-        <v>159635.5048964334</v>
+        <v>159635.5048964333</v>
       </c>
       <c r="I6" t="n">
-        <v>159635.5048964334</v>
+        <v>159635.5048964333</v>
       </c>
       <c r="J6" t="n">
         <v>105862.9940062239</v>
@@ -26555,7 +26557,7 @@
         <v>159635.5048964333</v>
       </c>
       <c r="N6" t="n">
-        <v>159635.5048964333</v>
+        <v>159635.5048964334</v>
       </c>
       <c r="O6" t="n">
         <v>152996.2274258975</v>
@@ -34705,10 +34707,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N2" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34784,19 +34786,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N8" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N8" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35258,13 +35260,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>91.61977832229879</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35647,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35729,19 +35731,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
+        <v>0.4947814597977008</v>
+      </c>
+      <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36209,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,7 +37639,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N41" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N41" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37865,13 +37867,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>148.1480627106907</v>
-      </c>
-      <c r="O42" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38023,13 +38025,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>197.2140931478448</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38111,7 +38113,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1113728.121457333</v>
+        <v>1009495.623193889</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443407</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>31.1509994400877</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>86.21539897205298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
         <v>205.5178444382804</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="U5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>113.950365236779</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>76.48594566799144</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,65 +1369,65 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="U11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>14.48693373137006</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1618,53 +1618,53 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I14" t="n">
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>83.05064890825312</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>146.2490690754472</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1706,7 +1706,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
     </row>
     <row r="18">
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>111.7765806969846</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1943,10 +1943,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1982,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -2219,16 +2219,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>237.3811362441418</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
     </row>
     <row r="22">
@@ -2280,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>128.2298974603009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>241.0142888776591</v>
@@ -2572,47 +2572,47 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2651,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>58.07579258715796</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -2851,7 +2851,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>118.4871633088199</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>48.48515950437164</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3277,19 +3277,19 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>81.00537765493296</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>127.5091403934689</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3584,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>11.86743876134777</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3641,13 +3641,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>47.29627918133474</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>67.40972515104126</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3976,29 +3976,29 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4106,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>46.75281614456514</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>152.495230711598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.90708355515102</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C2" t="n">
-        <v>47.90708355515102</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4333,10 +4333,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4354,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>47.90708355515102</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>47.90708355515102</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>47.90708355515102</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.90708355515102</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="3">
@@ -4415,43 +4415,43 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M3" t="n">
-        <v>423.3667595428576</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N3" t="n">
-        <v>626.8294255367553</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>633.815586718075</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U3" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V3" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W3" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
         <v>16.44142755506243</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4527,13 +4527,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4570,13 +4570,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4597,22 +4597,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.19556020784815</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="C6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4655,7 +4655,7 @@
         <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N6" t="n">
         <v>366.5706756325438</v>
@@ -4670,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>432.3831247296267</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U6" t="n">
-        <v>224.7893424687375</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V6" t="n">
-        <v>224.7893424687375</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W6" t="n">
-        <v>17.19556020784815</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X6" t="n">
-        <v>17.19556020784815</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.19556020784815</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4746,31 +4746,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
         <v>16.44142755506243</v>
@@ -4813,43 +4813,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X8" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>232.4307839502161</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>232.4307839502161</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>232.4307839502161</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
         <v>16.44142755506243</v>
@@ -4892,16 +4892,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4916,19 +4916,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X9" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4992,22 +4992,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D11" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
         <v>16.44142755506243</v>
@@ -5050,43 +5050,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y11" t="n">
-        <v>639.2227743377304</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M12" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M12" t="n">
-        <v>435.9652341458732</v>
-      </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5153,19 +5153,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>807.4381113577983</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W12" t="n">
-        <v>599.8443290969091</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X12" t="n">
-        <v>392.2505468360198</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.6567645751305</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5220,31 +5220,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>653.8560407330535</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="C15" t="n">
-        <v>653.8560407330535</v>
+        <v>564.7644888520197</v>
       </c>
       <c r="D15" t="n">
-        <v>653.8560407330535</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5363,16 +5363,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>142.2888212580996</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>345.7514872519972</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>549.2141532458947</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5384,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,16 +5600,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="19">
@@ -5697,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>223.6192102101089</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5840,10 +5840,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5855,25 +5855,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>259.0600686093459</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5928,31 +5928,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>149.5604247127973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>298.4948343740486</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>298.4948343740486</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>298.4948343740486</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
         <v>19.28114311021272</v>
@@ -6189,10 +6189,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D26" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>492.3847606029253</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>317.9317313217982</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>168.997321660547</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>168.997321660547</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>168.997321660547</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>168.997321660547</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6341,16 +6341,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>492.3847606029253</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>492.3847606029253</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>492.3847606029253</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U29" t="n">
-        <v>122.6530896684844</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V29" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6551,7 +6551,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6566,25 +6566,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>913.4938269565423</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>913.4938269565423</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>678.3417187247995</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
         <v>19.28114311021272</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6660,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6685,7 +6685,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>243.4632136343998</v>
+        <v>277.6959718698396</v>
       </c>
       <c r="C33" t="n">
-        <v>69.01018435327282</v>
+        <v>277.6959718698396</v>
       </c>
       <c r="D33" t="n">
-        <v>69.01018435327282</v>
+        <v>277.6959718698396</v>
       </c>
       <c r="E33" t="n">
-        <v>69.01018435327282</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>69.01018435327282</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
-        <v>69.01018435327282</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>69.01018435327282</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>619.4388494194218</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>619.4388494194218</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y33" t="n">
-        <v>411.6785506544679</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>812.6742080953335</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C35" t="n">
-        <v>812.6742080953335</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D35" t="n">
-        <v>812.6742080953335</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E35" t="n">
-        <v>812.6742080953335</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F35" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X35" t="n">
-        <v>812.6742080953335</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y35" t="n">
-        <v>812.6742080953335</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>351.7470193540314</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>351.7470193540314</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>351.7470193540314</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7025,7 +7025,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
         <v>712.019119383956</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W36" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
         <v>19.28114311021272</v>
@@ -7122,25 +7122,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7259,16 +7259,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>952.069843630487</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>778.6524990811558</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>778.6524990811558</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>550.428880817545</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>550.428880817545</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>550.428880817545</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>550.428880817545</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7365,13 +7365,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
         <v>19.28114311021272</v>
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E41" t="n">
         <v>431.628992076841</v>
@@ -7420,7 +7420,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
         <v>583.2163723184226</v>
@@ -7432,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>84.53205902076067</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>84.53205902076067</v>
       </c>
       <c r="F42" t="n">
         <v>16.44142755506243</v>
@@ -7493,16 +7493,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
         <v>570.0333416264414</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F43" t="n">
         <v>16.44142755506243</v>
@@ -7593,28 +7593,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I44" t="n">
         <v>16.44142755506243</v>
@@ -7657,43 +7657,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>499.8204541556819</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C45" t="n">
-        <v>325.3674248745549</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D45" t="n">
-        <v>176.4330152133036</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
         <v>17.19556020784815</v>
@@ -7733,10 +7733,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>29.03990215807806</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
         <v>435.9652341458732</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V45" t="n">
-        <v>822.0713777531216</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="W45" t="n">
-        <v>822.0713777531216</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="X45" t="n">
-        <v>822.0713777531216</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="Y45" t="n">
-        <v>668.0357911757499</v>
+        <v>191.6485894889752</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8063,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8072,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>269.7148239424616</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8303,10 +8303,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>290.282096632709</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8461,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8540,19 +8540,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8707,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8774,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9011,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>139.0491612396719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9248,19 +9248,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9488,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133072</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -10907,19 +10907,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11068,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11141,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>290.7443071551351</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11305,16 +11305,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11381,13 +11381,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>323.5320421805953</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22594,19 +22594,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>85.46777213178484</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>44.92126469973746</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
         <v>27.28274271114486</v>
@@ -22691,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.7137242822431</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22837,22 +22837,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>163.3715527109161</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>86.21436345804264</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,10 +22928,10 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23001,7 +23001,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901544</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23086,10 +23086,10 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>188.7109832972316</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23111,10 +23111,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>68.58326672539243</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23156,16 +23156,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23232,7 +23232,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>360.7700698467189</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23393,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>218.3136534180552</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>162.2736845391249</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23439,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946079</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>237.8052177150866</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>348.5708004529261</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>89.65785008006262</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>11.39601137995376</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>71.32518834398851</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>333.8123701683061</v>
       </c>
     </row>
     <row r="18">
@@ -23813,16 +23813,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>33.29263169639931</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23831,10 +23831,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23870,10 +23870,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23974,16 +23974,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24107,16 +24107,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>14.31384691677781</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>100.9443125299447</v>
       </c>
     </row>
     <row r="22">
@@ -24168,13 +24168,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.2811697535276</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>207.2105735132092</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24290,10 +24290,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>29.41518299510003</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,22 +24338,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24381,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>165.8617568640524</v>
@@ -24460,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24499,7 +24499,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24539,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>54.15965164933851</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24581,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24660,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>280.3956145707916</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>257.4082506688596</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.10013888409016</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>270.4049153562469</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,10 +24925,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24964,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>39.15791714658101</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>40.91147334704344</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25055,7 +25055,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25095,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25165,19 +25165,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>325.8706680867785</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25238,7 +25238,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>9.834376769741738</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>36.26901108812098</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25329,13 +25329,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>184.188810568277</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F38" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25444,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25472,10 +25472,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>88.29039539129536</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25529,13 +25529,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>201.7137242822432</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>210.9009519055692</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>100.148786383304</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>77.65948724234262</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25757,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25766,7 +25766,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25885,7 +25885,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25918,10 +25918,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>80.31623474114389</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25994,16 +25994,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>186.0477710048601</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>53.18746506570633</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>386506.2224955827</v>
+        <v>386506.2224955828</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>386506.2224955828</v>
+        <v>386506.2224955829</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>386506.2224955828</v>
+        <v>386506.2224955827</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>386506.2224955827</v>
+        <v>386506.2224955828</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>407093.6477017647</v>
+        <v>407093.6477017646</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>407093.6477017646</v>
+        <v>407093.6477017647</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>407093.6477017646</v>
+        <v>407093.6477017645</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>407093.6477017646</v>
+        <v>407093.6477017645</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>407093.6477017645</v>
+        <v>407093.6477017646</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>407093.6477017647</v>
+        <v>407093.6477017646</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>386506.2224955828</v>
+        <v>386506.2224955829</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>165645.5239266781</v>
       </c>
       <c r="C2" t="n">
+        <v>165645.5239266782</v>
+      </c>
+      <c r="D2" t="n">
         <v>165645.5239266781</v>
-      </c>
-      <c r="D2" t="n">
-        <v>165645.5239266782</v>
       </c>
       <c r="E2" t="n">
         <v>165645.5239266781</v>
@@ -26328,13 +26328,13 @@
         <v>165645.5239266781</v>
       </c>
       <c r="G2" t="n">
+        <v>174468.7061578989</v>
+      </c>
+      <c r="H2" t="n">
+        <v>174468.7061578989</v>
+      </c>
+      <c r="I2" t="n">
         <v>174468.706157899</v>
-      </c>
-      <c r="H2" t="n">
-        <v>174468.706157899</v>
-      </c>
-      <c r="I2" t="n">
-        <v>174468.7061578989</v>
       </c>
       <c r="J2" t="n">
         <v>174468.706157899</v>
@@ -26349,7 +26349,7 @@
         <v>174468.7061578989</v>
       </c>
       <c r="N2" t="n">
-        <v>174468.7061578991</v>
+        <v>174468.706157899</v>
       </c>
       <c r="O2" t="n">
         <v>165645.5239266781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50494.87084420762</v>
+        <v>37856.70868934709</v>
       </c>
       <c r="C6" t="n">
-        <v>119368.6274258974</v>
+        <v>106730.465271037</v>
       </c>
       <c r="D6" t="n">
-        <v>119368.6274258975</v>
+        <v>106730.465271037</v>
       </c>
       <c r="E6" t="n">
-        <v>152996.2274258975</v>
+        <v>140358.0652710369</v>
       </c>
       <c r="F6" t="n">
-        <v>152996.2274258974</v>
+        <v>140358.065271037</v>
       </c>
       <c r="G6" t="n">
-        <v>149906.4619222663</v>
+        <v>137688.4513022257</v>
       </c>
       <c r="H6" t="n">
-        <v>159635.5048964333</v>
+        <v>147417.4942763928</v>
       </c>
       <c r="I6" t="n">
-        <v>159635.5048964333</v>
+        <v>147417.4942763929</v>
       </c>
       <c r="J6" t="n">
-        <v>105862.9940062239</v>
+        <v>93644.98338618342</v>
       </c>
       <c r="K6" t="n">
-        <v>159635.5048964333</v>
+        <v>147417.4942763929</v>
       </c>
       <c r="L6" t="n">
-        <v>159635.5048964333</v>
+        <v>147417.4942763928</v>
       </c>
       <c r="M6" t="n">
-        <v>159635.5048964333</v>
+        <v>147417.4942763928</v>
       </c>
       <c r="N6" t="n">
-        <v>159635.5048964334</v>
+        <v>147417.4942763929</v>
       </c>
       <c r="O6" t="n">
-        <v>152996.2274258975</v>
+        <v>140358.065271037</v>
       </c>
       <c r="P6" t="n">
-        <v>152996.2274258975</v>
+        <v>140358.0652710369</v>
       </c>
     </row>
   </sheetData>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34792,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>127.1185794980172</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35023,10 +35023,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>148.1480627106907</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35181,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N8" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35427,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M12" t="n">
-        <v>91.61977832229879</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35731,19 +35731,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4947814597977008</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35968,19 +35968,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36208,13 +36208,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>99.81127712997396</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N41" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
       <c r="O42" t="n">
-        <v>148.1480627106907</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38025,16 +38025,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
